--- a/data/trans_orig/P44D-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P44D-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65906BF3-5ADB-440F-8AD7-34BEB17187A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B704DE6D-751C-4DA0-841A-647673FAE2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C0007F90-7350-4DED-846C-93ACFD1FBC4E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{738E6A00-B0EC-4B1E-8960-2850EC40CE4F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="224">
   <si>
     <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2012 (Tasa respuesta: 3,01%)</t>
   </si>
@@ -79,25 +79,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>9,98%</t>
+    <t>10,24%</t>
   </si>
   <si>
     <t>9,15%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
   </si>
   <si>
     <t>6,11%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
   </si>
   <si>
     <t>Servicio sanitario público</t>
@@ -106,7 +106,7 @@
     <t>97,96%</t>
   </si>
   <si>
-    <t>90,02%</t>
+    <t>89,76%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -115,19 +115,19 @@
     <t>90,85%</t>
   </si>
   <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
   </si>
   <si>
     <t>93,89%</t>
   </si>
   <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>17,56%</t>
   </si>
   <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
   </si>
   <si>
     <t>25,79%</t>
   </si>
   <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
   </si>
   <si>
     <t>20,72%</t>
   </si>
   <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
   </si>
   <si>
     <t>82,44%</t>
   </si>
   <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
   </si>
   <si>
     <t>74,21%</t>
   </si>
   <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
   </si>
   <si>
     <t>79,28%</t>
   </si>
   <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -196,109 +196,109 @@
     <t>32,83%</t>
   </si>
   <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
   </si>
   <si>
     <t>45,92%</t>
   </si>
   <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
   </si>
   <si>
     <t>38,65%</t>
   </si>
   <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
   </si>
   <si>
     <t>67,17%</t>
   </si>
   <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
   </si>
   <si>
     <t>54,08%</t>
   </si>
   <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
   </si>
   <si>
     <t>61,35%</t>
   </si>
   <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
   </si>
   <si>
     <t>13,0%</t>
   </si>
   <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
   </si>
   <si>
     <t>18,1%</t>
   </si>
   <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
   </si>
   <si>
     <t>15,5%</t>
   </si>
   <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
   </si>
   <si>
     <t>87,0%</t>
   </si>
   <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
   </si>
   <si>
     <t>81,9%</t>
   </si>
   <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
   </si>
   <si>
     <t>84,5%</t>
   </si>
   <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -310,160 +310,157 @@
     <t>2,15%</t>
   </si>
   <si>
-    <t>10,62%</t>
+    <t>10,8%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>10,82%</t>
+    <t>10,72%</t>
   </si>
   <si>
     <t>2,12%</t>
   </si>
   <si>
-    <t>6,43%</t>
+    <t>7,51%</t>
   </si>
   <si>
     <t>97,85%</t>
   </si>
   <si>
-    <t>89,38%</t>
+    <t>89,2%</t>
   </si>
   <si>
     <t>97,92%</t>
   </si>
   <si>
-    <t>89,18%</t>
+    <t>89,28%</t>
   </si>
   <si>
     <t>97,88%</t>
   </si>
   <si>
-    <t>93,57%</t>
+    <t>92,49%</t>
   </si>
   <si>
     <t>13,73%</t>
   </si>
   <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
   </si>
   <si>
     <t>10,05%</t>
   </si>
   <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
   </si>
   <si>
     <t>12,63%</t>
   </si>
   <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
+    <t>19,72%</t>
   </si>
   <si>
     <t>86,27%</t>
   </si>
   <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
   </si>
   <si>
     <t>89,95%</t>
   </si>
   <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
   </si>
   <si>
     <t>87,37%</t>
   </si>
   <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
+    <t>80,28%</t>
   </si>
   <si>
     <t>39,73%</t>
   </si>
   <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
   </si>
   <si>
     <t>40,47%</t>
   </si>
   <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
   </si>
   <si>
     <t>40,0%</t>
   </si>
   <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
   </si>
   <si>
     <t>60,27%</t>
   </si>
   <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
   </si>
   <si>
     <t>59,53%</t>
   </si>
   <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
   </si>
   <si>
     <t>60,0%</t>
   </si>
   <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
   </si>
   <si>
     <t>14,63%</t>
   </si>
   <si>
-    <t>9,58%</t>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
   </si>
   <si>
     <t>10,22%</t>
   </si>
   <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
   </si>
   <si>
     <t>12,84%</t>
@@ -472,28 +469,31 @@
     <t>9,19%</t>
   </si>
   <si>
-    <t>18,04%</t>
+    <t>17,65%</t>
   </si>
   <si>
     <t>85,37%</t>
   </si>
   <si>
-    <t>90,42%</t>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
   </si>
   <si>
     <t>89,78%</t>
   </si>
   <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
   </si>
   <si>
     <t>87,16%</t>
   </si>
   <si>
-    <t>81,96%</t>
+    <t>82,35%</t>
   </si>
   <si>
     <t>90,81%</t>
@@ -505,217 +505,211 @@
     <t>3,02%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
   </si>
   <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
   </si>
   <si>
     <t>96,98%</t>
   </si>
   <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
   </si>
   <si>
     <t>99,01%</t>
   </si>
   <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
   </si>
   <si>
     <t>98,12%</t>
   </si>
   <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
   </si>
   <si>
     <t>7,03%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
   </si>
   <si>
     <t>6,84%</t>
   </si>
   <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
   </si>
   <si>
     <t>6,95%</t>
   </si>
   <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
   </si>
   <si>
     <t>92,97%</t>
   </si>
   <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
   </si>
   <si>
     <t>93,16%</t>
   </si>
   <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
   </si>
   <si>
     <t>93,05%</t>
   </si>
   <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
   </si>
   <si>
     <t>21,05%</t>
   </si>
   <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
   </si>
   <si>
     <t>21,7%</t>
   </si>
   <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
   </si>
   <si>
     <t>21,32%</t>
   </si>
   <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
   </si>
   <si>
     <t>78,95%</t>
   </si>
   <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
   </si>
   <si>
     <t>78,3%</t>
   </si>
   <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
   </si>
   <si>
     <t>78,68%</t>
   </si>
   <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
   </si>
   <si>
     <t>9,01%</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
   </si>
   <si>
     <t>7,33%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
+    <t>5,61%</t>
   </si>
   <si>
     <t>8,23%</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
   </si>
   <si>
     <t>90,99%</t>
   </si>
   <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
   </si>
   <si>
     <t>92,67%</t>
   </si>
   <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
+    <t>94,39%</t>
   </si>
   <si>
     <t>91,77%</t>
   </si>
   <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AFA9416-3BA2-4B53-B89A-8BAE66BB4D3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D314117-4670-429E-8C21-DF83306F9031}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1878,7 +1872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEBBB44D-EC61-4282-B327-6DF7222F0AA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0020E08D-C368-404B-B57D-307A85D187DA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2190,10 +2184,10 @@
         <v>107</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2208,13 +2202,13 @@
         <v>64568</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H8" s="7">
         <v>25</v>
@@ -2223,13 +2217,13 @@
         <v>28748</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M8" s="7">
         <v>84</v>
@@ -2238,13 +2232,13 @@
         <v>93317</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2312,13 +2306,13 @@
         <v>11499</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2327,13 +2321,13 @@
         <v>6533</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -2342,13 +2336,13 @@
         <v>18033</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,13 +2357,13 @@
         <v>17444</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -2378,13 +2372,13 @@
         <v>9610</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -2393,13 +2387,13 @@
         <v>27054</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,13 +2461,13 @@
         <v>22912</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -2482,13 +2476,13 @@
         <v>10978</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -2497,13 +2491,13 @@
         <v>33890</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,10 +2512,10 @@
         <v>133700</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>146</v>
@@ -2629,7 +2623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13BC01E8-FC97-497B-88E3-8544DD298E9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022C4694-E259-45F0-9CDF-69B5B2D16DC4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2831,7 +2825,7 @@
         <v>523</v>
       </c>
       <c r="N5" s="7">
-        <v>338018</v>
+        <v>338019</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>169</v>
@@ -2882,7 +2876,7 @@
         <v>533</v>
       </c>
       <c r="N6" s="7">
-        <v>344510</v>
+        <v>344511</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3239,7 +3233,7 @@
         <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>131</v>
@@ -3248,13 +3242,13 @@
         <v>94265</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,13 +3263,13 @@
         <v>561432</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>835</v>
@@ -3284,13 +3278,13 @@
         <v>489584</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>1479</v>
@@ -3299,13 +3293,13 @@
         <v>1051016</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P44D-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P44D-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B704DE6D-751C-4DA0-841A-647673FAE2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8709AA94-9E19-49E2-96F1-10DF30C6BBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{738E6A00-B0EC-4B1E-8960-2850EC40CE4F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{125F6ED4-EB41-43B8-9C65-2B6E014189BD}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -79,25 +79,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>10,24%</t>
+    <t>12,76%</t>
   </si>
   <si>
     <t>9,15%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
   </si>
   <si>
     <t>6,11%</t>
   </si>
   <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
   </si>
   <si>
     <t>Servicio sanitario público</t>
@@ -106,7 +106,7 @@
     <t>97,96%</t>
   </si>
   <si>
-    <t>89,76%</t>
+    <t>87,24%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -115,19 +115,19 @@
     <t>90,85%</t>
   </si>
   <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
   </si>
   <si>
     <t>93,89%</t>
   </si>
   <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>17,56%</t>
   </si>
   <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
   </si>
   <si>
     <t>25,79%</t>
   </si>
   <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
   </si>
   <si>
     <t>20,72%</t>
   </si>
   <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
   </si>
   <si>
     <t>82,44%</t>
   </si>
   <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
   </si>
   <si>
     <t>74,21%</t>
   </si>
   <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
   </si>
   <si>
     <t>79,28%</t>
   </si>
   <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -196,271 +196,277 @@
     <t>32,83%</t>
   </si>
   <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
   </si>
   <si>
     <t>45,92%</t>
   </si>
   <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
   </si>
   <si>
     <t>38,65%</t>
   </si>
   <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
   </si>
   <si>
     <t>67,17%</t>
   </si>
   <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
   </si>
   <si>
     <t>54,08%</t>
   </si>
   <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
   </si>
   <si>
     <t>61,35%</t>
   </si>
   <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
   </si>
   <si>
     <t>13,0%</t>
   </si>
   <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
   </si>
   <si>
     <t>18,1%</t>
   </si>
   <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
   </si>
   <si>
     <t>15,5%</t>
   </si>
   <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
   </si>
   <si>
     <t>87,0%</t>
   </si>
   <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
   </si>
   <si>
     <t>81,9%</t>
   </si>
   <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
   </si>
   <si>
     <t>84,5%</t>
   </si>
   <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2015 (Tasa respuesta: 3,71%)</t>
+    <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2016 (Tasa respuesta: 3,71%)</t>
   </si>
   <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>10,8%</t>
+    <t>9,6%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>10,72%</t>
+    <t>10,55%</t>
   </si>
   <si>
     <t>2,12%</t>
   </si>
   <si>
-    <t>7,51%</t>
+    <t>6,41%</t>
   </si>
   <si>
     <t>97,85%</t>
   </si>
   <si>
-    <t>89,2%</t>
+    <t>90,4%</t>
   </si>
   <si>
     <t>97,92%</t>
   </si>
   <si>
-    <t>89,28%</t>
+    <t>89,45%</t>
   </si>
   <si>
     <t>97,88%</t>
   </si>
   <si>
-    <t>92,49%</t>
+    <t>93,59%</t>
   </si>
   <si>
     <t>13,73%</t>
   </si>
   <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
   </si>
   <si>
     <t>10,05%</t>
   </si>
   <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
   </si>
   <si>
     <t>12,63%</t>
   </si>
   <si>
-    <t>19,72%</t>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
   </si>
   <si>
     <t>86,27%</t>
   </si>
   <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
   </si>
   <si>
     <t>89,95%</t>
   </si>
   <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
   </si>
   <si>
     <t>87,37%</t>
   </si>
   <si>
-    <t>80,28%</t>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
   </si>
   <si>
     <t>39,73%</t>
   </si>
   <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
   </si>
   <si>
     <t>40,47%</t>
   </si>
   <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
   </si>
   <si>
     <t>40,0%</t>
   </si>
   <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
   </si>
   <si>
     <t>60,27%</t>
   </si>
   <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
   </si>
   <si>
     <t>59,53%</t>
   </si>
   <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
   </si>
   <si>
     <t>60,0%</t>
   </si>
   <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
   </si>
   <si>
     <t>14,63%</t>
   </si>
   <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
   </si>
   <si>
     <t>10,22%</t>
   </si>
   <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
   </si>
   <si>
     <t>12,84%</t>
@@ -469,31 +475,31 @@
     <t>9,19%</t>
   </si>
   <si>
-    <t>17,65%</t>
+    <t>17,31%</t>
   </si>
   <si>
     <t>85,37%</t>
   </si>
   <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
   </si>
   <si>
     <t>89,78%</t>
   </si>
   <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
   </si>
   <si>
     <t>87,16%</t>
   </si>
   <si>
-    <t>82,35%</t>
+    <t>82,69%</t>
   </si>
   <si>
     <t>90,81%</t>
@@ -565,9 +571,6 @@
     <t>10,17%</t>
   </si>
   <si>
-    <t>6,84%</t>
-  </si>
-  <si>
     <t>4,66%</t>
   </si>
   <si>
@@ -590,9 +593,6 @@
   </si>
   <si>
     <t>96,41%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
   </si>
   <si>
     <t>90,22%</t>
@@ -1121,7 +1121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D314117-4670-429E-8C21-DF83306F9031}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F38C4E-B567-4B79-A62B-33B57863817D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1872,7 +1872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0020E08D-C368-404B-B57D-307A85D187DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795871FA-F562-41F7-80B1-7EF6CAE5F759}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2184,10 +2184,10 @@
         <v>107</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2202,13 +2202,13 @@
         <v>64568</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H8" s="7">
         <v>25</v>
@@ -2217,13 +2217,13 @@
         <v>28748</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M8" s="7">
         <v>84</v>
@@ -2232,13 +2232,13 @@
         <v>93317</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2306,13 +2306,13 @@
         <v>11499</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2321,13 +2321,13 @@
         <v>6533</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -2336,13 +2336,13 @@
         <v>18033</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,13 +2357,13 @@
         <v>17444</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -2372,13 +2372,13 @@
         <v>9610</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -2387,13 +2387,13 @@
         <v>27054</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,13 +2461,13 @@
         <v>22912</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -2476,13 +2476,13 @@
         <v>10978</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -2491,13 +2491,13 @@
         <v>33890</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,13 +2512,13 @@
         <v>133700</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H14" s="7">
         <v>82</v>
@@ -2527,13 +2527,13 @@
         <v>96400</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>210</v>
@@ -2542,13 +2542,13 @@
         <v>230101</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2623,7 +2623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022C4694-E259-45F0-9CDF-69B5B2D16DC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA085718-4489-4A89-99D1-9E725DA78C00}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2640,7 +2640,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2747,13 +2747,13 @@
         <v>4585</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -2762,13 +2762,13 @@
         <v>1907</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -2777,13 +2777,13 @@
         <v>6492</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,13 +2798,13 @@
         <v>147218</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
         <v>324</v>
@@ -2813,13 +2813,13 @@
         <v>190800</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>523</v>
@@ -2828,13 +2828,13 @@
         <v>338019</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,13 +2902,13 @@
         <v>23539</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -2917,13 +2917,13 @@
         <v>16595</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M7" s="7">
         <v>55</v>
@@ -2932,13 +2932,13 @@
         <v>40134</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +2953,13 @@
         <v>311265</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H8" s="7">
         <v>385</v>
@@ -2968,7 +2968,7 @@
         <v>225920</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>185</v>
@@ -3233,7 +3233,7 @@
         <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>131</v>
@@ -3281,7 +3281,7 @@
         <v>219</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>220</v>

--- a/data/trans_orig/P44D-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P44D-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8709AA94-9E19-49E2-96F1-10DF30C6BBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D9DC02D-1921-4BFF-A747-AE9B644160A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{125F6ED4-EB41-43B8-9C65-2B6E014189BD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{407EAE64-F88F-4515-B4F9-DA6D7A36C431}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="226">
   <si>
     <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2012 (Tasa respuesta: 3,01%)</t>
   </si>
@@ -79,25 +79,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>12,76%</t>
+    <t>9,98%</t>
   </si>
   <si>
     <t>9,15%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
   </si>
   <si>
     <t>6,11%</t>
   </si>
   <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
   </si>
   <si>
     <t>Servicio sanitario público</t>
@@ -106,7 +106,7 @@
     <t>97,96%</t>
   </si>
   <si>
-    <t>87,24%</t>
+    <t>90,02%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -115,19 +115,19 @@
     <t>90,85%</t>
   </si>
   <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
   </si>
   <si>
     <t>93,89%</t>
   </si>
   <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>17,56%</t>
   </si>
   <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
   </si>
   <si>
     <t>25,79%</t>
   </si>
   <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
   </si>
   <si>
     <t>20,72%</t>
   </si>
   <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
   </si>
   <si>
     <t>82,44%</t>
   </si>
   <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
   </si>
   <si>
     <t>74,21%</t>
   </si>
   <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
   </si>
   <si>
     <t>79,28%</t>
   </si>
   <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -196,55 +196,55 @@
     <t>32,83%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
   </si>
   <si>
     <t>45,92%</t>
   </si>
   <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
   </si>
   <si>
     <t>38,65%</t>
   </si>
   <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
   </si>
   <si>
     <t>67,17%</t>
   </si>
   <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
   </si>
   <si>
     <t>54,08%</t>
   </si>
   <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
   </si>
   <si>
     <t>61,35%</t>
   </si>
   <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
   </si>
   <si>
     <t>13,0%</t>
@@ -253,31 +253,31 @@
     <t>6,58%</t>
   </si>
   <si>
-    <t>22,29%</t>
+    <t>22,27%</t>
   </si>
   <si>
     <t>18,1%</t>
   </si>
   <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
   </si>
   <si>
     <t>15,5%</t>
   </si>
   <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
   </si>
   <si>
     <t>87,0%</t>
   </si>
   <si>
-    <t>77,71%</t>
+    <t>77,73%</t>
   </si>
   <si>
     <t>93,42%</t>
@@ -286,19 +286,19 @@
     <t>81,9%</t>
   </si>
   <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
   </si>
   <si>
     <t>84,5%</t>
   </si>
   <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -310,406 +310,412 @@
     <t>2,15%</t>
   </si>
   <si>
-    <t>9,6%</t>
+    <t>10,62%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>10,55%</t>
+    <t>10,82%</t>
   </si>
   <si>
     <t>2,12%</t>
   </si>
   <si>
-    <t>6,41%</t>
+    <t>6,43%</t>
   </si>
   <si>
     <t>97,85%</t>
   </si>
   <si>
-    <t>90,4%</t>
+    <t>89,38%</t>
   </si>
   <si>
     <t>97,92%</t>
   </si>
   <si>
-    <t>89,45%</t>
+    <t>89,18%</t>
   </si>
   <si>
     <t>97,88%</t>
   </si>
   <si>
-    <t>93,59%</t>
+    <t>93,57%</t>
   </si>
   <si>
     <t>13,73%</t>
   </si>
   <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2023 (Tasa respuesta: 18,45%)</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
     <t>6,84%</t>
   </si>
   <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
   </si>
   <si>
     <t>93,16%</t>
   </si>
   <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2023 (Tasa respuesta: 18,45%)</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
   </si>
   <si>
     <t>93,05%</t>
   </si>
   <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
   </si>
   <si>
     <t>21,05%</t>
   </si>
   <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
   </si>
   <si>
     <t>21,7%</t>
   </si>
   <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
   </si>
   <si>
     <t>21,32%</t>
   </si>
   <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
   </si>
   <si>
     <t>78,95%</t>
   </si>
   <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
   </si>
   <si>
     <t>78,3%</t>
   </si>
   <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
   </si>
   <si>
     <t>78,68%</t>
   </si>
   <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
   </si>
   <si>
     <t>9,01%</t>
   </si>
   <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
   </si>
   <si>
     <t>7,33%</t>
   </si>
   <si>
-    <t>5,61%</t>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
   </si>
   <si>
     <t>8,23%</t>
   </si>
   <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
   </si>
   <si>
     <t>90,99%</t>
   </si>
   <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
   </si>
   <si>
     <t>92,67%</t>
   </si>
   <si>
-    <t>94,39%</t>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
   </si>
   <si>
     <t>91,77%</t>
   </si>
   <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F38C4E-B567-4B79-A62B-33B57863817D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85AE03B-9D4C-4BA3-8A47-63275A835422}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1872,7 +1878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795871FA-F562-41F7-80B1-7EF6CAE5F759}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA21B3C6-7C4E-4E90-A0E9-6DC6390FFDDD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2467,7 +2473,7 @@
         <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -2476,13 +2482,13 @@
         <v>10978</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -2491,13 +2497,13 @@
         <v>33890</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,13 +2518,13 @@
         <v>133700</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H14" s="7">
         <v>82</v>
@@ -2527,13 +2533,13 @@
         <v>96400</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>210</v>
@@ -2542,13 +2548,13 @@
         <v>230101</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2623,7 +2629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA085718-4489-4A89-99D1-9E725DA78C00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E235867-1BFA-4980-9970-E87461777ED6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2640,7 +2646,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2747,13 +2753,13 @@
         <v>4585</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -2762,13 +2768,13 @@
         <v>1907</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -2777,13 +2783,13 @@
         <v>6492</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,13 +2804,13 @@
         <v>147218</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H5" s="7">
         <v>324</v>
@@ -2813,28 +2819,28 @@
         <v>190800</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>523</v>
       </c>
       <c r="N5" s="7">
-        <v>338019</v>
+        <v>338018</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,7 +2882,7 @@
         <v>533</v>
       </c>
       <c r="N6" s="7">
-        <v>344511</v>
+        <v>344510</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2902,13 +2908,13 @@
         <v>23539</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -2917,13 +2923,13 @@
         <v>16595</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>102</v>
+        <v>175</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M7" s="7">
         <v>55</v>
@@ -2932,13 +2938,13 @@
         <v>40134</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +2959,13 @@
         <v>311265</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H8" s="7">
         <v>385</v>
@@ -2968,7 +2974,7 @@
         <v>225920</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>185</v>
@@ -3233,7 +3239,7 @@
         <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>131</v>
@@ -3242,13 +3248,13 @@
         <v>94265</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,13 +3269,13 @@
         <v>561432</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>835</v>
@@ -3278,13 +3284,13 @@
         <v>489584</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>1479</v>
@@ -3293,13 +3299,13 @@
         <v>1051016</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P44D-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P44D-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D9DC02D-1921-4BFF-A747-AE9B644160A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D728CD8-B14F-4513-9B7F-A377ACBA4625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{407EAE64-F88F-4515-B4F9-DA6D7A36C431}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{28B94848-030A-4583-9977-07CBF2B2E658}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -502,220 +502,220 @@
     <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2023 (Tasa respuesta: 18,45%)</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
   </si>
   <si>
     <t>6,84%</t>
   </si>
   <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
   </si>
   <si>
     <t>93,16%</t>
   </si>
   <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
   </si>
   <si>
     <t>9,32%</t>
   </si>
   <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
   </si>
   <si>
     <t>90,68%</t>
   </si>
   <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85AE03B-9D4C-4BA3-8A47-63275A835422}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F53C9B-D9EB-43F1-909E-596D903C43C0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1878,7 +1878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA21B3C6-7C4E-4E90-A0E9-6DC6390FFDDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB16EDE-27D5-45B6-AACE-27662BEEBDA7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2629,7 +2629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E235867-1BFA-4980-9970-E87461777ED6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8CD481-C48E-41A4-9D5F-C9CD3732476D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2750,7 +2750,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>4585</v>
+        <v>4374</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>154</v>
@@ -2765,7 +2765,7 @@
         <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>1907</v>
+        <v>1727</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>157</v>
@@ -2780,7 +2780,7 @@
         <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>6492</v>
+        <v>6101</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>160</v>
@@ -2801,7 +2801,7 @@
         <v>199</v>
       </c>
       <c r="D5" s="7">
-        <v>147218</v>
+        <v>137288</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>163</v>
@@ -2816,7 +2816,7 @@
         <v>324</v>
       </c>
       <c r="I5" s="7">
-        <v>190800</v>
+        <v>168955</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>166</v>
@@ -2831,7 +2831,7 @@
         <v>523</v>
       </c>
       <c r="N5" s="7">
-        <v>338018</v>
+        <v>306242</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>169</v>
@@ -2852,7 +2852,7 @@
         <v>205</v>
       </c>
       <c r="D6" s="7">
-        <v>151803</v>
+        <v>141662</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2867,7 +2867,7 @@
         <v>328</v>
       </c>
       <c r="I6" s="7">
-        <v>192707</v>
+        <v>170682</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2882,7 +2882,7 @@
         <v>533</v>
       </c>
       <c r="N6" s="7">
-        <v>344510</v>
+        <v>312343</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2905,7 +2905,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="7">
-        <v>23539</v>
+        <v>21954</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>172</v>
@@ -2920,7 +2920,7 @@
         <v>28</v>
       </c>
       <c r="I7" s="7">
-        <v>16595</v>
+        <v>15260</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>175</v>
@@ -2935,7 +2935,7 @@
         <v>55</v>
       </c>
       <c r="N7" s="7">
-        <v>40134</v>
+        <v>37214</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>178</v>
@@ -2956,7 +2956,7 @@
         <v>318</v>
       </c>
       <c r="D8" s="7">
-        <v>311265</v>
+        <v>489732</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>181</v>
@@ -2971,7 +2971,7 @@
         <v>385</v>
       </c>
       <c r="I8" s="7">
-        <v>225920</v>
+        <v>207755</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>184</v>
@@ -2986,7 +2986,7 @@
         <v>703</v>
       </c>
       <c r="N8" s="7">
-        <v>537184</v>
+        <v>697487</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>187</v>
@@ -3007,7 +3007,7 @@
         <v>345</v>
       </c>
       <c r="D9" s="7">
-        <v>334804</v>
+        <v>511686</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3022,7 +3022,7 @@
         <v>413</v>
       </c>
       <c r="I9" s="7">
-        <v>242515</v>
+        <v>223015</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3037,7 +3037,7 @@
         <v>758</v>
       </c>
       <c r="N9" s="7">
-        <v>577318</v>
+        <v>734701</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3060,7 +3060,7 @@
         <v>33</v>
       </c>
       <c r="D10" s="7">
-        <v>27443</v>
+        <v>25605</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>190</v>
@@ -3075,7 +3075,7 @@
         <v>33</v>
       </c>
       <c r="I10" s="7">
-        <v>20195</v>
+        <v>18294</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>193</v>
@@ -3090,7 +3090,7 @@
         <v>66</v>
       </c>
       <c r="N10" s="7">
-        <v>47638</v>
+        <v>43899</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>196</v>
@@ -3111,7 +3111,7 @@
         <v>127</v>
       </c>
       <c r="D11" s="7">
-        <v>102950</v>
+        <v>98300</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>199</v>
@@ -3126,7 +3126,7 @@
         <v>126</v>
       </c>
       <c r="I11" s="7">
-        <v>72864</v>
+        <v>67433</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>202</v>
@@ -3141,7 +3141,7 @@
         <v>253</v>
       </c>
       <c r="N11" s="7">
-        <v>175814</v>
+        <v>165733</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>205</v>
@@ -3162,7 +3162,7 @@
         <v>160</v>
       </c>
       <c r="D12" s="7">
-        <v>130393</v>
+        <v>123905</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3177,7 +3177,7 @@
         <v>159</v>
       </c>
       <c r="I12" s="7">
-        <v>93059</v>
+        <v>85727</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3192,7 +3192,7 @@
         <v>319</v>
       </c>
       <c r="N12" s="7">
-        <v>223452</v>
+        <v>209632</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3215,7 +3215,7 @@
         <v>66</v>
       </c>
       <c r="D13" s="7">
-        <v>55568</v>
+        <v>51933</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>208</v>
@@ -3230,7 +3230,7 @@
         <v>65</v>
       </c>
       <c r="I13" s="7">
-        <v>38697</v>
+        <v>35281</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>211</v>
@@ -3245,7 +3245,7 @@
         <v>131</v>
       </c>
       <c r="N13" s="7">
-        <v>94265</v>
+        <v>87214</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>214</v>
@@ -3266,7 +3266,7 @@
         <v>644</v>
       </c>
       <c r="D14" s="7">
-        <v>561432</v>
+        <v>725319</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>217</v>
@@ -3281,7 +3281,7 @@
         <v>835</v>
       </c>
       <c r="I14" s="7">
-        <v>489584</v>
+        <v>444142</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>220</v>
@@ -3296,7 +3296,7 @@
         <v>1479</v>
       </c>
       <c r="N14" s="7">
-        <v>1051016</v>
+        <v>1169462</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>223</v>
@@ -3317,7 +3317,7 @@
         <v>710</v>
       </c>
       <c r="D15" s="7">
-        <v>617000</v>
+        <v>777252</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3332,7 +3332,7 @@
         <v>900</v>
       </c>
       <c r="I15" s="7">
-        <v>528281</v>
+        <v>479423</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3347,7 +3347,7 @@
         <v>1610</v>
       </c>
       <c r="N15" s="7">
-        <v>1145281</v>
+        <v>1256676</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
